--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ07_BilateralFacilityTermination.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ07_BilateralFacilityTermination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B0F2C-D385-4F3E-B144-C7BCBAD6B0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C30D71-7D93-4A80-AD07-7B02B661A39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="860">
   <si>
     <t>rowid</t>
   </si>
@@ -3244,11 +3244,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CI2"/>
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <pane xSplit="2" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ1" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3337,7 @@
     <col min="87" max="87" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3599,8 +3599,11 @@
       <c r="CI1" s="54" t="s">
         <v>86</v>
       </c>
+      <c r="CJ1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -3854,6 +3857,9 @@
       </c>
       <c r="CI2" s="62" t="s">
         <v>144</v>
+      </c>
+      <c r="CJ2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3868,10 +3874,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3884,7 +3890,7 @@
     <col min="6" max="6" width="15.28515625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3903,8 +3909,11 @@
       <c r="F1" s="54" t="s">
         <v>586</v>
       </c>
+      <c r="G1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -3922,6 +3931,9 @@
       </c>
       <c r="F2" s="56">
         <v>2</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3936,10 +3948,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="AW1" sqref="AW1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,7 +4003,7 @@
     <col min="48" max="48" width="23.42578125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4136,8 +4148,11 @@
       <c r="AV1" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="AW1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4279,6 +4294,9 @@
       </c>
       <c r="AV2" s="56" t="s">
         <v>646</v>
+      </c>
+      <c r="AW2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4293,10 +4311,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Z1" sqref="Z1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4323,7 +4341,7 @@
     <col min="21" max="25" width="9.140625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4399,8 +4417,11 @@
       <c r="Y1" s="54" t="s">
         <v>668</v>
       </c>
+      <c r="Z1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4473,8 +4494,11 @@
       <c r="Y2" s="56" t="s">
         <v>690</v>
       </c>
+      <c r="Z2" s="62" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <v>2</v>
       </c>
@@ -4549,6 +4573,9 @@
       </c>
       <c r="Y3" s="56" t="s">
         <v>690</v>
+      </c>
+      <c r="Z3" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4563,13 +4590,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4620,7 +4647,7 @@
     <col min="48" max="48" width="20.85546875" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="17" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="17" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4765,8 +4792,11 @@
       <c r="AV1" s="17" t="s">
         <v>734</v>
       </c>
+      <c r="AW1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4857,6 +4887,9 @@
       </c>
       <c r="AL2" s="20" t="s">
         <v>132</v>
+      </c>
+      <c r="AW2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5084,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ2" sqref="AZ2"/>
+      <selection pane="topRight" activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5287,7 +5320,9 @@
       <c r="AV1" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="AW1" s="30"/>
+      <c r="AW1" s="30" t="s">
+        <v>439</v>
+      </c>
       <c r="AX1" s="30"/>
       <c r="AY1" s="30"/>
       <c r="AZ1" s="30"/>
@@ -5486,6 +5521,9 @@
       <c r="AV2" s="56" t="s">
         <v>834</v>
       </c>
+      <c r="AW2" s="61" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5501,9 +5539,9 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM14" sqref="BM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,6 +5865,9 @@
       <c r="BK1" s="13" t="s">
         <v>621</v>
       </c>
+      <c r="BL1" s="54" t="s">
+        <v>439</v>
+      </c>
       <c r="CF1" s="38"/>
       <c r="CG1" s="38"/>
       <c r="CH1" s="38"/>
@@ -5999,6 +6040,9 @@
       <c r="BK2" s="64" t="s">
         <v>641</v>
       </c>
+      <c r="BL2" s="61" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6014,8 +6058,8 @@
   </sheetPr>
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6100,7 @@
     <col min="49" max="49" width="14.7109375" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -6189,8 +6233,11 @@
       <c r="AR1" s="54" t="s">
         <v>182</v>
       </c>
+      <c r="AS1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -6322,6 +6369,9 @@
       </c>
       <c r="AR2" s="56" t="s">
         <v>208</v>
+      </c>
+      <c r="AS2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6338,9 +6388,9 @@
   </sheetPr>
   <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN1" sqref="AN1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,7 +6443,7 @@
     <col min="49" max="49" width="18.28515625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="66" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6511,8 +6561,11 @@
       <c r="AM1" s="54" t="s">
         <v>859</v>
       </c>
+      <c r="AN1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -6624,8 +6677,11 @@
       <c r="AM2" s="56">
         <v>30</v>
       </c>
+      <c r="AN2" s="62" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
       <c r="AE3" s="28"/>
@@ -6647,8 +6703,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,7 +6917,9 @@
       <c r="AU1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="AV1" s="66"/>
+      <c r="AV1" s="13" t="s">
+        <v>439</v>
+      </c>
       <c r="AW1" s="66"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -6998,7 +7056,9 @@
       <c r="AU2" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="AV2" s="56"/>
+      <c r="AV2" s="62" t="s">
+        <v>534</v>
+      </c>
       <c r="AW2" s="56"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -7038,8 +7098,8 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7270,6 +7330,9 @@
       <c r="AF1" s="13" t="s">
         <v>265</v>
       </c>
+      <c r="AG1" s="13" t="s">
+        <v>439</v>
+      </c>
       <c r="AX1" s="73"/>
       <c r="AY1" s="73"/>
       <c r="AZ1" s="73"/>
@@ -7323,7 +7386,7 @@
       <c r="CV1" s="73"/>
       <c r="CW1" s="73"/>
     </row>
-    <row r="2" spans="1:101" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -7416,6 +7479,9 @@
       </c>
       <c r="AF2" s="56" t="s">
         <v>280</v>
+      </c>
+      <c r="AG2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -7432,8 +7498,8 @@
   </sheetPr>
   <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7501,7 +7567,7 @@
     <col min="69" max="69" width="15.85546875" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7556,7 +7622,9 @@
       <c r="R1" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="13" t="s">
+        <v>439</v>
+      </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
@@ -7602,7 +7670,7 @@
       <c r="BJ1" s="26"/>
       <c r="BK1" s="26"/>
     </row>
-    <row r="2" spans="1:63" s="83" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="83" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>87</v>
       </c>
@@ -7656,6 +7724,9 @@
       </c>
       <c r="R2" s="84" t="s">
         <v>307</v>
+      </c>
+      <c r="S2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -7681,8 +7752,8 @@
   </sheetPr>
   <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="DX1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EH1" sqref="EH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8618,13 +8689,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8649,7 +8720,7 @@
     <col min="21" max="21" width="25.42578125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -8713,8 +8784,11 @@
       <c r="U1" s="54" t="s">
         <v>553</v>
       </c>
+      <c r="V1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -8777,6 +8851,9 @@
       </c>
       <c r="U2" s="56" t="s">
         <v>119</v>
+      </c>
+      <c r="V2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8791,11 +8868,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8828,7 +8905,7 @@
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="66" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -8910,8 +8987,11 @@
       <c r="AA1" s="59" t="s">
         <v>20</v>
       </c>
+      <c r="AB1" s="13" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -8989,6 +9069,9 @@
       </c>
       <c r="AA2" s="62" t="s">
         <v>107</v>
+      </c>
+      <c r="AB2" s="62" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ07_BilateralFacilityTermination.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ07_BilateralFacilityTermination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C30D71-7D93-4A80-AD07-7B02B661A39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B0F2C-D385-4F3E-B144-C7BCBAD6B0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="860">
   <si>
     <t>rowid</t>
   </si>
@@ -3244,11 +3244,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CJ2"/>
+  <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ1" sqref="CJ1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3337,7 @@
     <col min="87" max="87" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3599,11 +3599,8 @@
       <c r="CI1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -3857,9 +3854,6 @@
       </c>
       <c r="CI2" s="62" t="s">
         <v>144</v>
-      </c>
-      <c r="CJ2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3868,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3890,7 +3884,7 @@
     <col min="6" max="6" width="15.28515625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3909,11 +3903,8 @@
       <c r="F1" s="54" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -3931,9 +3922,6 @@
       </c>
       <c r="F2" s="56">
         <v>2</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3948,10 +3936,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AW2"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,7 +3991,7 @@
     <col min="48" max="48" width="23.42578125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4148,11 +4136,8 @@
       <c r="AV1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="AW1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4294,9 +4279,6 @@
       </c>
       <c r="AV2" s="56" t="s">
         <v>646</v>
-      </c>
-      <c r="AW2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4311,10 +4293,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z2"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4341,7 +4323,7 @@
     <col min="21" max="25" width="9.140625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="54" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4417,11 +4399,8 @@
       <c r="Y1" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4494,11 +4473,8 @@
       <c r="Y2" s="56" t="s">
         <v>690</v>
       </c>
-      <c r="Z2" s="62" t="s">
-        <v>534</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <v>2</v>
       </c>
@@ -4573,9 +4549,6 @@
       </c>
       <c r="Y3" s="56" t="s">
         <v>690</v>
-      </c>
-      <c r="Z3" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4590,13 +4563,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW1" sqref="AW1:AW2"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4647,7 +4620,7 @@
     <col min="48" max="48" width="20.85546875" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="17" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="17" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4792,11 +4765,8 @@
       <c r="AV1" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="AW1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -4887,9 +4857,6 @@
       </c>
       <c r="AL2" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="AW2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5051,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW12" sqref="AW12"/>
+      <selection pane="topRight" activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5320,9 +5287,7 @@
       <c r="AV1" s="30" t="s">
         <v>803</v>
       </c>
-      <c r="AW1" s="30" t="s">
-        <v>439</v>
-      </c>
+      <c r="AW1" s="30"/>
       <c r="AX1" s="30"/>
       <c r="AY1" s="30"/>
       <c r="AZ1" s="30"/>
@@ -5521,9 +5486,6 @@
       <c r="AV2" s="56" t="s">
         <v>834</v>
       </c>
-      <c r="AW2" s="61" t="s">
-        <v>534</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5539,9 +5501,9 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM14" sqref="BM14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,9 +5827,6 @@
       <c r="BK1" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="BL1" s="54" t="s">
-        <v>439</v>
-      </c>
       <c r="CF1" s="38"/>
       <c r="CG1" s="38"/>
       <c r="CH1" s="38"/>
@@ -6040,9 +5999,6 @@
       <c r="BK2" s="64" t="s">
         <v>641</v>
       </c>
-      <c r="BL2" s="61" t="s">
-        <v>534</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6058,8 +6014,8 @@
   </sheetPr>
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1:AS2"/>
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6100,7 +6056,7 @@
     <col min="49" max="49" width="14.7109375" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -6233,11 +6189,8 @@
       <c r="AR1" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="AS1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -6369,9 +6322,6 @@
       </c>
       <c r="AR2" s="56" t="s">
         <v>208</v>
-      </c>
-      <c r="AS2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6388,9 +6338,9 @@
   </sheetPr>
   <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN1" sqref="AN1:AN2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,7 +6393,7 @@
     <col min="49" max="49" width="18.28515625" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="66" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6561,11 +6511,8 @@
       <c r="AM1" s="54" t="s">
         <v>859</v>
       </c>
-      <c r="AN1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -6677,11 +6624,8 @@
       <c r="AM2" s="56">
         <v>30</v>
       </c>
-      <c r="AN2" s="62" t="s">
-        <v>534</v>
-      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
       <c r="AE3" s="28"/>
@@ -6703,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6917,9 +6861,7 @@
       <c r="AU1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="AV1" s="13" t="s">
-        <v>439</v>
-      </c>
+      <c r="AV1" s="66"/>
       <c r="AW1" s="66"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -7056,9 +6998,7 @@
       <c r="AU2" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="AV2" s="62" t="s">
-        <v>534</v>
-      </c>
+      <c r="AV2" s="56"/>
       <c r="AW2" s="56"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -7098,8 +7038,8 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG1" sqref="AG1:AG2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,9 +7270,6 @@
       <c r="AF1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="AG1" s="13" t="s">
-        <v>439</v>
-      </c>
       <c r="AX1" s="73"/>
       <c r="AY1" s="73"/>
       <c r="AZ1" s="73"/>
@@ -7386,7 +7323,7 @@
       <c r="CV1" s="73"/>
       <c r="CW1" s="73"/>
     </row>
-    <row r="2" spans="1:101" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -7479,9 +7416,6 @@
       </c>
       <c r="AF2" s="56" t="s">
         <v>280</v>
-      </c>
-      <c r="AG2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -7498,8 +7432,8 @@
   </sheetPr>
   <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7567,7 +7501,7 @@
     <col min="69" max="69" width="15.85546875" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7622,9 +7556,7 @@
       <c r="R1" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>439</v>
-      </c>
+      <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
@@ -7670,7 +7602,7 @@
       <c r="BJ1" s="26"/>
       <c r="BK1" s="26"/>
     </row>
-    <row r="2" spans="1:63" s="83" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="83" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>87</v>
       </c>
@@ -7724,9 +7656,6 @@
       </c>
       <c r="R2" s="84" t="s">
         <v>307</v>
-      </c>
-      <c r="S2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -7752,8 +7681,8 @@
   </sheetPr>
   <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView topLeftCell="DX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EH1" sqref="EH1"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8689,13 +8618,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:V2"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8720,7 +8649,7 @@
     <col min="21" max="21" width="25.42578125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="54" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -8784,11 +8713,8 @@
       <c r="U1" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -8851,9 +8777,6 @@
       </c>
       <c r="U2" s="56" t="s">
         <v>119</v>
-      </c>
-      <c r="V2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8868,11 +8791,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1:AB2"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8905,7 +8828,7 @@
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="66" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -8987,11 +8910,8 @@
       <c r="AA1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="13" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -9069,9 +8989,6 @@
       </c>
       <c r="AA2" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="AB2" s="62" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
